--- a/testdata/FCfiles/stg/ManageBilling/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/ManageBilling/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>shipmentType</t>
   </si>
@@ -444,6 +444,63 @@
   </si>
   <si>
     <t>CEV1003649</t>
+  </si>
+  <si>
+    <t>58570625</t>
+  </si>
+  <si>
+    <t>02-03-2022</t>
+  </si>
+  <si>
+    <t>$1,058.70</t>
+  </si>
+  <si>
+    <t>FCT938695326770921472</t>
+  </si>
+  <si>
+    <t>CEV1072319</t>
+  </si>
+  <si>
+    <t>58570627</t>
+  </si>
+  <si>
+    <t>$920.18</t>
+  </si>
+  <si>
+    <t>FCT938716439152427008</t>
+  </si>
+  <si>
+    <t>CEV1072320</t>
+  </si>
+  <si>
+    <t>58570628</t>
+  </si>
+  <si>
+    <t>FCT938717915815870464</t>
+  </si>
+  <si>
+    <t>CEV1072321</t>
+  </si>
+  <si>
+    <t>58570827</t>
+  </si>
+  <si>
+    <t>02-06-2022</t>
+  </si>
+  <si>
+    <t>FCT939797150915624960</t>
+  </si>
+  <si>
+    <t>CEV1072322</t>
+  </si>
+  <si>
+    <t>58570828</t>
+  </si>
+  <si>
+    <t>FCT939798454643720192</t>
+  </si>
+  <si>
+    <t>CEV1072323</t>
   </si>
 </sst>
 </file>
@@ -473,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="76">
+  <fills count="126">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,8 +907,258 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="124">
     <border>
       <left/>
       <right/>
@@ -1216,6 +1523,181 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1224,7 +1706,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="78">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1277,7 +1759,32 @@
     <xf applyBorder="true" applyFill="true" borderId="67" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="69" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="71" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="73" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="123" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1925,8 +2432,8 @@
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>133</v>
+      <c r="B2" s="69" t="s">
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1979,20 +2486,20 @@
       <c r="U2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="43" t="s">
-        <v>132</v>
+      <c r="V2" s="68" t="s">
+        <v>151</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y2" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="47" t="s">
-        <v>135</v>
+      <c r="X2" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="72" t="s">
+        <v>154</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>74</v>
@@ -2021,8 +2528,8 @@
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>133</v>
+      <c r="B3" s="74" t="s">
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2073,20 +2580,20 @@
       <c r="U3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="48" t="s">
-        <v>136</v>
+      <c r="V3" s="73" t="s">
+        <v>155</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y3" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="52" t="s">
-        <v>138</v>
+      <c r="X3" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z3" s="77" t="s">
+        <v>157</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>74</v>

--- a/testdata/FCfiles/stg/ManageBilling/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/ManageBilling/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="165">
   <si>
     <t>shipmentType</t>
   </si>
@@ -501,6 +501,27 @@
   </si>
   <si>
     <t>CEV1072323</t>
+  </si>
+  <si>
+    <t>59070065</t>
+  </si>
+  <si>
+    <t>05-16-2022</t>
+  </si>
+  <si>
+    <t>$821.09</t>
+  </si>
+  <si>
+    <t>CEV1072782</t>
+  </si>
+  <si>
+    <t>59070066</t>
+  </si>
+  <si>
+    <t>$964.27</t>
+  </si>
+  <si>
+    <t>CEV1072783</t>
   </si>
 </sst>
 </file>
@@ -530,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="126">
+  <fills count="146">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,8 +1178,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="124">
+  <borders count="144">
     <border>
       <left/>
       <right/>
@@ -1698,6 +1819,76 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1706,7 +1897,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1784,7 +1975,17 @@
     <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="123" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="143" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2432,8 +2633,8 @@
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>152</v>
+      <c r="B2" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -2486,20 +2687,20 @@
       <c r="U2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="68" t="s">
-        <v>151</v>
+      <c r="V2" s="78" t="s">
+        <v>158</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z2" s="72" t="s">
-        <v>154</v>
+      <c r="X2" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y2" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" s="82" t="s">
+        <v>161</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>74</v>
@@ -2528,8 +2729,8 @@
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>152</v>
+      <c r="B3" s="84" t="s">
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2580,20 +2781,20 @@
       <c r="U3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="73" t="s">
-        <v>155</v>
+      <c r="V3" s="83" t="s">
+        <v>162</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y3" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z3" s="77" t="s">
-        <v>157</v>
+      <c r="X3" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y3" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z3" s="87" t="s">
+        <v>164</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>74</v>
